--- a/biology/Médecine/Artère_digitale_palmaire_propre/Artère_digitale_palmaire_propre.xlsx
+++ b/biology/Médecine/Artère_digitale_palmaire_propre/Artère_digitale_palmaire_propre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_digitale_palmaire_propre</t>
+          <t>Artère_digitale_palmaire_propre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères digitales palmaires propres sont des artères des doigts de la main.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_digitale_palmaire_propre</t>
+          <t>Artère_digitale_palmaire_propre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères digitales palmaires propres sont les deux branches terminales des artères digitales palmaires communes.
 L'artère digitale palmaire propre du côté médial du petit doigt provient directement de l'artère ulnaire naissant en dessous du muscle court palmaire.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_digitale_palmaire_propre</t>
+          <t>Artère_digitale_palmaire_propre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères digitales palmaires propres longent les phalanges le long des faces contigües de l'index, du majeur, de l'annulaire et de l'auriculaire, chaque artère se trouvant juste en dessous de son nerf digital dorsal du nerf ulnaire correspondant.
 Elles s'anastomosent librement dans le tissu sous-cutané du bout des doigts et par des branches plus petites autour des articulations interphalangiennes.
